--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/RateVolAssets.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/RateVolAssets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C5F04-AAD4-4A48-8B27-A31F44E8A495}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC5771-D586-4C35-A5FD-49B0C28C665F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12315" windowHeight="13035" tabRatio="653" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="630" windowWidth="26370" windowHeight="14820" tabRatio="653" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,15 @@
     <definedName name="Metrics">[1]FuturesTransactions!$M$2:$M$5</definedName>
     <definedName name="ReportSet">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -227,9 +235,6 @@
     <t>Instrument</t>
   </si>
   <si>
-    <t>AUD-BBR-BBSW-3M</t>
-  </si>
-  <si>
     <t>IndexName</t>
   </si>
   <si>
@@ -417,6 +422,9 @@
   </si>
   <si>
     <t>AUD-IRFuture-IR-8</t>
+  </si>
+  <si>
+    <t>AUD-XIBOR-3M</t>
   </si>
 </sst>
 </file>
@@ -3181,7 +3189,7 @@
     <row r="49" spans="2:13">
       <c r="B49" s="46" t="str">
         <f ca="1">"Last Update "&amp;TEXT(TODAY(),"dd-mmm-yy")</f>
-        <v>Last Update 27-Apr-18</v>
+        <v>Last Update 02-Jul-19</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
@@ -3227,7 +3235,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3256,7 +3264,7 @@
     <row r="2" spans="1:13" ht="13.5" thickBot="1">
       <c r="A2" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 27/04/2018, 8:03 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 1/07/2019, 3:19 PM</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>9</v>
@@ -3272,26 +3280,26 @@
       <c r="D3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="106" t="e">
+      <c r="G3" s="106" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve(G4:H23,C10:E20)</f>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.CapVolatilityCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="H3" s="107"/>
-      <c r="J3" s="71" t="e">
+      <c r="J3" s="71">
         <f t="array" aca="1" ref="J3:K23" ca="1">_xll.HLV5r3.Financial.Cache.GetTermCurve(G3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K3" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L3" t="e">
+        <v>43649</v>
+      </c>
+      <c r="K3" s="70">
+        <f ca="1"/>
+        <v>9.4753258393363404E-2</v>
+      </c>
+      <c r="L3" t="str">
         <f t="array" aca="1" ref="L3:M23" ca="1">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet(G3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M3" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>AUD-Caplet-1D-90D</v>
+      </c>
+      <c r="M3" s="70">
+        <f ca="1"/>
+        <v>9.4753258393363404E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3310,21 +3318,21 @@
       <c r="H4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M4" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J4" s="71">
+        <f ca="1"/>
+        <v>43720</v>
+      </c>
+      <c r="K4" s="70">
+        <f ca="1"/>
+        <v>9.4753258393363404E-2</v>
+      </c>
+      <c r="L4" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFutureOption-IR-1</v>
+      </c>
+      <c r="M4" s="70">
+        <f ca="1"/>
+        <v>9.4753258393363404E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3334,30 +3342,30 @@
       </c>
       <c r="D5" s="56">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="G5" s="64" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="66">
         <f ca="1">D5</f>
-        <v>43217</v>
-      </c>
-      <c r="J5" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>43648</v>
+      </c>
+      <c r="J5" s="71">
+        <f ca="1"/>
+        <v>43811</v>
+      </c>
+      <c r="K5" s="70">
+        <f ca="1"/>
+        <v>0.13009032073985799</v>
+      </c>
+      <c r="L5" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFutureOption-IR-2</v>
+      </c>
+      <c r="M5" s="70">
+        <f ca="1"/>
+        <v>0.13009032073985799</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3370,23 +3378,23 @@
       </c>
       <c r="H6" s="66">
         <f ca="1">H5</f>
-        <v>43217</v>
-      </c>
-      <c r="J6" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>43648</v>
+      </c>
+      <c r="J6" s="71">
+        <f ca="1"/>
+        <v>43902</v>
+      </c>
+      <c r="K6" s="70">
+        <f ca="1"/>
+        <v>0.16173649165324799</v>
+      </c>
+      <c r="L6" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFutureOption-IR-3</v>
+      </c>
+      <c r="M6" s="70">
+        <f ca="1"/>
+        <v>0.16173649165324799</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3400,93 +3408,93 @@
       <c r="H7" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J7" s="71">
+        <f ca="1"/>
+        <v>43993</v>
+      </c>
+      <c r="K7" s="70">
+        <f ca="1"/>
+        <v>0.16879235417739799</v>
+      </c>
+      <c r="L7" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFutureOption-IR-4</v>
+      </c>
+      <c r="M7" s="70">
+        <f ca="1"/>
+        <v>0.16879235417739799</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="52" t="str">
         <f t="array" ref="A8:A77">_xll.HLV5r3.Financial.Cache.ListUpTo100PricingStructures(C3:D4)</f>
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
       </c>
       <c r="G8" s="64" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>110</v>
+      </c>
+      <c r="J8" s="71">
+        <f ca="1"/>
+        <v>44287</v>
+      </c>
+      <c r="K8" s="70">
+        <f ca="1"/>
+        <v>0.20468414309511099</v>
+      </c>
+      <c r="L8" t="str">
+        <f ca="1"/>
+        <v>AUD-IRCap-2Y</v>
+      </c>
+      <c r="M8" s="70">
+        <f ca="1"/>
+        <v>0.17304742136418499</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="52" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
       </c>
       <c r="C9" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>74</v>
-      </c>
       <c r="E9" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J9" s="71">
+        <f ca="1"/>
+        <v>44652</v>
+      </c>
+      <c r="K9" s="70">
+        <f ca="1"/>
+        <v>0.170976342533778</v>
+      </c>
+      <c r="L9" t="str">
+        <f ca="1"/>
+        <v>AUD-IRCap-3Y</v>
+      </c>
+      <c r="M9" s="70">
+        <f ca="1"/>
+        <v>0.179781797851125</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="52" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="69">
         <v>9.4753258393363377E-2</v>
@@ -3495,31 +3503,31 @@
         <v>5.0060721611920871E-2</v>
       </c>
       <c r="G10" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J10" s="71">
+        <f ca="1"/>
+        <v>45016</v>
+      </c>
+      <c r="K10" s="70">
+        <f ca="1"/>
+        <v>0.166983876589504</v>
+      </c>
+      <c r="L10" t="str">
+        <f ca="1"/>
+        <v>AUD-IRCap-4Y</v>
+      </c>
+      <c r="M10" s="70">
+        <f ca="1"/>
+        <v>0.17522834916777799</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="52" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>29</v>
@@ -3531,31 +3539,31 @@
         <v>5.0060721611920871E-2</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>79</v>
+      </c>
+      <c r="J11" s="71">
+        <f ca="1"/>
+        <v>45384</v>
+      </c>
+      <c r="K11" s="70">
+        <f ca="1"/>
+        <v>0.14977034065966999</v>
+      </c>
+      <c r="L11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRCap-5Y</v>
+      </c>
+      <c r="M11" s="70">
+        <f ca="1"/>
+        <v>0.17025232997543099</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="52" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>30</v>
@@ -3567,31 +3575,31 @@
         <v>5.1047480308955312E-2</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L12" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>79</v>
+      </c>
+      <c r="J12" s="71">
+        <f ca="1"/>
+        <v>46114</v>
+      </c>
+      <c r="K12" s="70">
+        <f ca="1"/>
+        <v>0.142096376801194</v>
+      </c>
+      <c r="L12" t="str">
+        <f ca="1"/>
+        <v>AUD-IRCap-7Y</v>
+      </c>
+      <c r="M12" s="70">
+        <f ca="1"/>
+        <v>0.16065724860411201</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="52" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
+        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>31</v>
@@ -3603,31 +3611,31 @@
         <v>5.1812894627468804E-2</v>
       </c>
       <c r="G13" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="71" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" s="70" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J13" s="71">
+        <f ca="1"/>
+        <v>47206</v>
+      </c>
+      <c r="K13" s="70">
+        <f ca="1"/>
+        <v>0.13396716745034301</v>
+      </c>
+      <c r="L13" t="str">
+        <f ca="1"/>
+        <v>AUD-IRCap-10Y</v>
+      </c>
+      <c r="M13" s="70">
+        <f ca="1"/>
+        <v>0.15217435435607199</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="52" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
+        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>32</v>
@@ -3639,7 +3647,7 @@
         <v>5.2550892367138217E-2</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="65" t="str">
         <f>MID(H8,1,3)</f>
@@ -3647,24 +3655,24 @@
       </c>
       <c r="J14" s="71" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K14" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L14" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M14" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="52" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
+        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>33</v>
@@ -3676,31 +3684,31 @@
         <v>5.2446530628058492E-2</v>
       </c>
       <c r="G15" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="65" t="s">
-        <v>58</v>
-      </c>
       <c r="J15" s="71" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K15" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L15" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M15" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="52" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
       </c>
       <c r="C16" s="68" t="s">
         <v>34</v>
@@ -3712,34 +3720,34 @@
         <v>5.3208333859975768E-2</v>
       </c>
       <c r="G16" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="65" t="s">
-        <v>60</v>
-      </c>
       <c r="J16" s="71" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K16" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L16" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M16" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="52" t="str">
-        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="69">
         <v>0.17522834916777816</v>
@@ -3748,31 +3756,31 @@
         <v>5.4139829688298079E-2</v>
       </c>
       <c r="G17" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="65" t="s">
-        <v>62</v>
-      </c>
       <c r="J17" s="71" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K17" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L17" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M17" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="52" t="str">
-        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>36</v>
@@ -3784,31 +3792,31 @@
         <v>5.5257840173808769E-2</v>
       </c>
       <c r="G18" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="65" t="s">
-        <v>64</v>
-      </c>
       <c r="J18" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K18" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L18" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M18" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="52" t="str">
-        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>37</v>
@@ -3820,31 +3828,31 @@
         <v>5.6884967950663175E-2</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K19" s="70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L19" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M19" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="52" t="str">
-        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
       </c>
       <c r="C20" s="68" t="s">
         <v>38</v>
@@ -3856,31 +3864,31 @@
         <v>5.797793399027959E-2</v>
       </c>
       <c r="G20" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="65" t="s">
-        <v>67</v>
-      </c>
       <c r="J20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
       </c>
       <c r="C21" s="72" t="s">
         <v>39</v>
@@ -3892,34 +3900,34 @@
         <v>5.8897221739118454E-2</v>
       </c>
       <c r="G21" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="65" t="s">
-        <v>69</v>
-      </c>
       <c r="J21" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K21" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L21" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M21" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="73">
         <v>0.14682713519583557</v>
@@ -3928,35 +3936,35 @@
         <v>5.8043346570692336E-2</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" s="66">
         <f ca="1">H5</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="J22" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K22" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L22" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M22" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="73">
         <v>0.15026123413304787</v>
@@ -3965,34 +3973,34 @@
         <v>5.6716812844806869E-2</v>
       </c>
       <c r="G23" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="65" t="s">
-        <v>72</v>
-      </c>
       <c r="J23" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K23" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L23" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M23" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="75">
         <v>0.15395022440649961</v>
@@ -4003,515 +4011,515 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
-      </c>
-      <c r="C27" t="e">
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
+      </c>
+      <c r="C27" t="str">
         <f t="array" aca="1" ref="C27:D57" ca="1">_xll.HLV5r3.Financial.Cache.DisplayPricingStructureProperties(G3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>PricingStructureType</v>
+      </c>
+      <c r="D27" s="54" t="str">
+        <f ca="1"/>
+        <v>CapVolatilityCurve</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
-      </c>
-      <c r="C28" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+      </c>
+      <c r="C28" t="str">
+        <f ca="1"/>
+        <v>BuildDateTime</v>
+      </c>
+      <c r="D28" s="54">
+        <f ca="1"/>
+        <v>43648</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
-      </c>
-      <c r="C29" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.CapVolatilityCurve.AUD-BBR-BBSW-3M</v>
+      </c>
+      <c r="C29" t="str">
+        <f ca="1"/>
+        <v>BaseDate</v>
+      </c>
+      <c r="D29" s="54">
+        <f ca="1"/>
+        <v>43648</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
-      </c>
-      <c r="C30" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
+      </c>
+      <c r="C30" t="str">
+        <f ca="1"/>
+        <v>MarketName</v>
+      </c>
+      <c r="D30" s="54" t="str">
+        <f ca="1"/>
+        <v>QR_LIVE</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
-      </c>
-      <c r="C31" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
+      </c>
+      <c r="C31" t="str">
+        <f ca="1"/>
+        <v>Instrument</v>
+      </c>
+      <c r="D31" s="54" t="str">
+        <f ca="1"/>
+        <v>AUD-XIBOR-3M</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
-      </c>
-      <c r="C32" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+      </c>
+      <c r="C32" t="str">
+        <f ca="1"/>
+        <v>IndexName</v>
+      </c>
+      <c r="D32" s="54" t="str">
+        <f ca="1"/>
+        <v>AUD-BBR-BBSW</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
-      </c>
-      <c r="C33" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
+      </c>
+      <c r="C33" t="str">
+        <f ca="1"/>
+        <v>IndexTenor</v>
+      </c>
+      <c r="D33" s="54" t="str">
+        <f ca="1"/>
+        <v>3M</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
-      </c>
-      <c r="C34" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
+      </c>
+      <c r="C34" t="str">
+        <f ca="1"/>
+        <v>ReferenceCurveUniqueId</v>
+      </c>
+      <c r="D34" s="54" t="str">
+        <f ca="1"/>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
-      </c>
-      <c r="C35" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
+      </c>
+      <c r="C35" t="str">
+        <f ca="1"/>
+        <v>ReferenceCurrency2CurveId</v>
+      </c>
+      <c r="D35" s="54" t="str">
+        <f ca="1"/>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
-      </c>
-      <c r="C36" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
+      </c>
+      <c r="C36" t="str">
+        <f ca="1"/>
+        <v>Algorithm</v>
+      </c>
+      <c r="D36" s="54" t="str">
+        <f ca="1"/>
+        <v>Default</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
-      </c>
-      <c r="C37" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
+      </c>
+      <c r="C37" t="str">
+        <f ca="1"/>
+        <v>Currency</v>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f ca="1"/>
+        <v>AUD</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
-      </c>
-      <c r="C38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+      </c>
+      <c r="C38" t="str">
+        <f ca="1"/>
+        <v>StrikeQuoteUnits</v>
+      </c>
+      <c r="D38" s="54" t="str">
+        <f ca="1"/>
+        <v>DecimalRate</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
-      </c>
-      <c r="C39" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
+      </c>
+      <c r="C39" t="str">
+        <f ca="1"/>
+        <v>QuoteUnits</v>
+      </c>
+      <c r="D39" s="54" t="str">
+        <f ca="1"/>
+        <v>LogNormalVolatility</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="52" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
-      </c>
-      <c r="C40" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
+      </c>
+      <c r="C40" t="str">
+        <f ca="1"/>
+        <v>InformationSource</v>
+      </c>
+      <c r="D40" s="54" t="str">
+        <f ca="1"/>
+        <v>SwapDesk</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
-      </c>
-      <c r="C41" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D41" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-9Y</v>
+      </c>
+      <c r="C41" t="str">
+        <f ca="1"/>
+        <v>MeasureType</v>
+      </c>
+      <c r="D41" s="54" t="str">
+        <f ca="1"/>
+        <v>Volatility</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
-      </c>
-      <c r="C42" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D42" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-8Y</v>
+      </c>
+      <c r="C42" t="str">
+        <f ca="1"/>
+        <v>QuotationSide</v>
+      </c>
+      <c r="D42" s="54" t="str">
+        <f ca="1"/>
+        <v>Mid</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
-      </c>
-      <c r="C43" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D43" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-7Y</v>
+      </c>
+      <c r="C43" t="str">
+        <f ca="1"/>
+        <v>Timing</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f ca="1"/>
+        <v>Close</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="52" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
-      </c>
-      <c r="C44" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D44" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-6Y</v>
+      </c>
+      <c r="C44" t="str">
+        <f ca="1"/>
+        <v>ValuationDate</v>
+      </c>
+      <c r="D44" s="54">
+        <f ca="1"/>
+        <v>43648</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="52" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
-      </c>
-      <c r="C45" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D45" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-4Y</v>
+      </c>
+      <c r="C45" t="str">
+        <f ca="1"/>
+        <v>BusinessCenter</v>
+      </c>
+      <c r="D45" s="54" t="str">
+        <f ca="1"/>
+        <v>Sydney</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="52" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
-      </c>
-      <c r="C46" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D46" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-3Y</v>
+      </c>
+      <c r="C46" t="str">
+        <f ca="1"/>
+        <v>SourceSystem</v>
+      </c>
+      <c r="D46" s="54" t="str">
+        <f ca="1"/>
+        <v>Spreadsheet</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="52" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
-      </c>
-      <c r="C47" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D47" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-2Y</v>
+      </c>
+      <c r="C47" t="str">
+        <f ca="1"/>
+        <v>Function</v>
+      </c>
+      <c r="D47" s="54" t="str">
+        <f ca="1"/>
+        <v>Market</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="52" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
-      </c>
-      <c r="C48" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D48" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1Y</v>
+      </c>
+      <c r="C48" t="str">
+        <f ca="1"/>
+        <v>Schema</v>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f ca="1"/>
+        <v>V5r3.Reporting</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="52" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
-      </c>
-      <c r="C49" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D49" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-1Y</v>
+      </c>
+      <c r="C49" t="str">
+        <f ca="1"/>
+        <v>NameSpace</v>
+      </c>
+      <c r="D49" s="54" t="str">
+        <f ca="1"/>
+        <v>Orion.V5r3</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
-      </c>
-      <c r="C50" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D50" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M-SydneySwapDesk</v>
+      </c>
+      <c r="C50" t="str">
+        <f ca="1"/>
+        <v>UniqueIdentifier</v>
+      </c>
+      <c r="D50" s="54" t="str">
+        <f ca="1"/>
+        <v>Market.QR_LIVE.CapVolatilityCurve.AUD-BBR-BBSW-3M</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
-      </c>
-      <c r="C51" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-USD</v>
+      </c>
+      <c r="C51" t="str">
+        <f ca="1"/>
+        <v>Domain</v>
+      </c>
+      <c r="D51" s="54" t="str">
+        <f ca="1"/>
+        <v>Spreadsheet.Market</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
-      </c>
-      <c r="C52" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-LME_Aluminium2</v>
+      </c>
+      <c r="C52" t="str">
+        <f ca="1"/>
+        <v>Market</v>
+      </c>
+      <c r="D52" s="54" t="str">
+        <f ca="1"/>
+        <v>QR_LIVE</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
-      </c>
-      <c r="C53" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-LME_Aluminium</v>
+      </c>
+      <c r="C53" t="str">
+        <f ca="1"/>
+        <v>CurveType</v>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f ca="1"/>
+        <v>Parent</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
-      </c>
-      <c r="C54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D54" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-ICE_Brent</v>
+      </c>
+      <c r="C54" t="str">
+        <f ca="1"/>
+        <v>AssetClass</v>
+      </c>
+      <c r="D54" s="54" t="str">
+        <f ca="1"/>
+        <v>Rates</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
-      </c>
-      <c r="C55" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D55" s="54" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-Platts_Brent</v>
+      </c>
+      <c r="C55" t="str">
+        <f ca="1"/>
+        <v>PricingStructureRiskSetType</v>
+      </c>
+      <c r="D55" s="54" t="str">
+        <f ca="1"/>
+        <v>Parent</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="52" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-Townsville-AW2-ICE_Brent</v>
       </c>
       <c r="C56" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D56" s="54" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-Townsville-AW2-LME_Aluminium</v>
       </c>
       <c r="C57" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D57" s="54" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-Cairns-AW2-LME_Aluminium</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-Cairns-AW2-ICE_Brent</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-Mossman-AW2-LME_Aluminium</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.CommodityCurve.AUD-ASX_Wheat</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.CommodityCurve.USD-Mossman-AW2-ICE_Brent</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.CommodityCurve.AUD-Cairns-AW2-Wheat</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.CommodityCurve.AUD-Townsville-AW2-Wheat</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.CommodityCurve.AUD-Mossman-AW2-Wheat</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.CommodityCurve.EUR-ICE_CER</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.CommodityVolatilityMatrix.USD-CME_Wheat</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.CommodityVolatilityMatrix.EUR-CER</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.EquityVolatilityMatrix.AUD-BHP-2D</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.EquityVolatilityMatrix.AUD-BHP-15D</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.FxVolatilityMatrix.AUDUSD-FxSpot-FxOptionsDesk</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.DiscountCurve.AUD-WATC-SENIOR</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-WATC-SECURED</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.EquityCurve.AUD-AAD.AU</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.EquityCurve.AUD-QBE.AU</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="52" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
   </sheetData>
@@ -4557,7 +4565,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -4566,7 +4574,7 @@
       </c>
       <c r="C4" s="83">
         <f ca="1">C5</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -4575,7 +4583,7 @@
       </c>
       <c r="C5" s="85">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -4588,31 +4596,31 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="87" t="s">
         <v>91</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -4620,10 +4628,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -4631,15 +4639,15 @@
         <v>6</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="13.5" thickBot="1">
       <c r="B13" s="89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -4649,18 +4657,18 @@
     </row>
     <row r="16" spans="2:4" ht="13.5" thickBot="1">
       <c r="B16" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="D16" s="96" t="s">
         <v>101</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="98">
         <v>5.9000000000000018E-2</v>
@@ -4671,7 +4679,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="101">
         <v>5.9499999999999963E-2</v>
@@ -4682,7 +4690,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="101">
         <v>6.0000000000000019E-2</v>
@@ -4693,7 +4701,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="101">
         <v>6.0499999999999964E-2</v>
@@ -4704,7 +4712,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="101">
         <v>6.1000000000000019E-2</v>
@@ -4715,7 +4723,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="101">
         <v>6.1499999999999964E-2</v>
@@ -4726,7 +4734,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="101">
         <v>6.200000000000002E-2</v>
@@ -4737,7 +4745,7 @@
     </row>
     <row r="24" spans="2:4" ht="13.5" thickBot="1">
       <c r="B24" s="103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="104">
         <v>6.2499999999999965E-2</v>
@@ -4829,14 +4837,14 @@
     <row r="2" spans="1:24">
       <c r="A2" s="59">
         <f ca="1">BaseDate</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B2, A2,D2, E2)</f>
-        <v>AUD-Caplet-1DM-90D-0.05-27/04/2018</v>
+        <v>AUD-Caplet-1DM-90D-0.05-2/07/2019</v>
       </c>
       <c r="D2" s="20">
         <v>0.3</v>
@@ -4845,12 +4853,12 @@
         <v>0.05</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="14" t="str">
         <f t="array" aca="1" ref="H2:X2" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C2,A2)</f>
-        <v>AUD-Caplet-1DM-90D-0.05-27/04/2018</v>
+        <v>AUD-Caplet-1DM-90D-0.05-2/07/2019</v>
       </c>
       <c r="I2" s="9" t="str">
         <f ca="1"/>
@@ -4858,7 +4866,7 @@
       </c>
       <c r="J2" s="27">
         <f ca="1"/>
-        <v>7.0102224390069606E-2</v>
+        <v>7.0232913034594682E-2</v>
       </c>
       <c r="K2" s="9" t="str">
         <f ca="1"/>
@@ -4866,7 +4874,7 @@
       </c>
       <c r="L2" s="15">
         <f ca="1"/>
-        <v>0.23696003074876901</v>
+        <v>0.24233396128708964</v>
       </c>
       <c r="M2" s="9" t="str">
         <f ca="1"/>
@@ -4874,7 +4882,7 @@
       </c>
       <c r="N2" s="24">
         <f ca="1"/>
-        <v>0.23696003074876901</v>
+        <v>0.24233396128708964</v>
       </c>
       <c r="O2" s="15" t="str">
         <f ca="1"/>
@@ -4882,7 +4890,7 @@
       </c>
       <c r="P2" s="25">
         <f ca="1"/>
-        <v>-0.23696003074876901</v>
+        <v>-0.24233396128708964</v>
       </c>
       <c r="Q2" s="15" t="str">
         <f ca="1"/>
@@ -4898,7 +4906,7 @@
       </c>
       <c r="T2" s="21">
         <f ca="1"/>
-        <v>4.763423709589547E-3</v>
+        <v>4.9031219640505233E-3</v>
       </c>
       <c r="U2" s="9" t="e">
         <f ca="1"/>
@@ -4920,14 +4928,14 @@
     <row r="3" spans="1:24">
       <c r="A3" s="59">
         <f ca="1">A2</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B3, A3,D3, E3)</f>
-        <v>AUD-IRFutureOption-IR-1-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-1-0.05-2/07/2019</v>
       </c>
       <c r="D3" s="20">
         <v>0.3</v>
@@ -4941,7 +4949,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="14" t="str">
         <f t="array" aca="1" ref="H3:X3" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,FuturesCurve, C3,A3)</f>
-        <v>AUD-IRFutureOption-IR-1-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-1-0.05-2/07/2019</v>
       </c>
       <c r="I3" s="9" t="str">
         <f ca="1"/>
@@ -5011,14 +5019,14 @@
     <row r="4" spans="1:24">
       <c r="A4" s="59">
         <f t="shared" ref="A4:A7" ca="1" si="0">A3</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B4, A4,D4, E4)</f>
-        <v>AUD-IRPutFutureOption-IR-2-0.05-27/04/2018</v>
+        <v>AUD-IRPutFutureOption-IR-2-0.05-2/07/2019</v>
       </c>
       <c r="D4" s="20">
         <v>0.3</v>
@@ -5027,12 +5035,12 @@
         <v>0.05</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="str">
         <f t="array" aca="1" ref="H4:X4" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C4,A4)</f>
-        <v>AUD-IRPutFutureOption-IR-2-0.05-27/04/2018</v>
+        <v>AUD-IRPutFutureOption-IR-2-0.05-2/07/2019</v>
       </c>
       <c r="I4" s="9" t="str">
         <f ca="1"/>
@@ -5040,7 +5048,7 @@
       </c>
       <c r="J4" s="27">
         <f ca="1"/>
-        <v>7.0159226414744924E-2</v>
+        <v>6.5583027181124715E-2</v>
       </c>
       <c r="K4" s="9" t="str">
         <f ca="1"/>
@@ -5080,7 +5088,7 @@
       </c>
       <c r="T4" s="21">
         <f ca="1"/>
-        <v>-8502.6753086939225</v>
+        <v>-7956.9063093206614</v>
       </c>
       <c r="U4" s="9" t="e">
         <f ca="1"/>
@@ -5102,14 +5110,14 @@
     <row r="5" spans="1:24">
       <c r="A5" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B5, A5,D5, E5)</f>
-        <v>AUD-IRCallFutureOption-IR-3-0.05-27/04/2018</v>
+        <v>AUD-IRCallFutureOption-IR-3-0.05-2/07/2019</v>
       </c>
       <c r="D5" s="20">
         <v>0.3</v>
@@ -5123,7 +5131,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="14" t="str">
         <f t="array" aca="1" ref="H5:X5" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C5,A5)</f>
-        <v>AUD-IRCallFutureOption-IR-3-0.05-27/04/2018</v>
+        <v>AUD-IRCallFutureOption-IR-3-0.05-2/07/2019</v>
       </c>
       <c r="I5" s="9" t="str">
         <f ca="1"/>
@@ -5131,7 +5139,7 @@
       </c>
       <c r="J5" s="27">
         <f ca="1"/>
-        <v>7.02147430182406E-2</v>
+        <v>6.7557056937260732E-2</v>
       </c>
       <c r="K5" s="9" t="str">
         <f ca="1"/>
@@ -5171,7 +5179,7 @@
       </c>
       <c r="T5" s="21">
         <f ca="1"/>
-        <v>-8509.2889250902354</v>
+        <v>-8192.4826322432054</v>
       </c>
       <c r="U5" s="9" t="e">
         <f ca="1"/>
@@ -5193,14 +5201,14 @@
     <row r="6" spans="1:24">
       <c r="A6" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B6, A6,D6, E6)</f>
-        <v>AUD-IRFutureOption-IR-4-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-4-0.05-2/07/2019</v>
       </c>
       <c r="D6" s="20">
         <v>0.3</v>
@@ -5214,7 +5222,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="14" t="str">
         <f t="array" aca="1" ref="H6:X6" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C6,A6)</f>
-        <v>AUD-IRFutureOption-IR-4-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-4-0.05-2/07/2019</v>
       </c>
       <c r="I6" s="9" t="str">
         <f ca="1"/>
@@ -5222,7 +5230,7 @@
       </c>
       <c r="J6" s="27">
         <f ca="1"/>
-        <v>7.0225635690849844E-2</v>
+        <v>6.8819075816676803E-2</v>
       </c>
       <c r="K6" s="9" t="str">
         <f ca="1"/>
@@ -5262,7 +5270,7 @@
       </c>
       <c r="T6" s="21">
         <f ca="1"/>
-        <v>-8510.5865332662561</v>
+        <v>-8342.970991674887</v>
       </c>
       <c r="U6" s="9" t="e">
         <f ca="1"/>
@@ -5284,14 +5292,14 @@
     <row r="7" spans="1:24">
       <c r="A7" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B7, A7,D7, E7)</f>
-        <v>AUD-Caplet-18M-3M-0.05-27/04/2018</v>
+        <v>AUD-Caplet-18M-3M-0.05-2/07/2019</v>
       </c>
       <c r="D7" s="20">
         <v>0.3</v>
@@ -5305,7 +5313,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="14" t="str">
         <f t="array" aca="1" ref="H7:X7" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C7,A7)</f>
-        <v>AUD-Caplet-18M-3M-0.05-27/04/2018</v>
+        <v>AUD-Caplet-18M-3M-0.05-2/07/2019</v>
       </c>
       <c r="I7" s="9" t="str">
         <f ca="1"/>
@@ -5313,7 +5321,7 @@
       </c>
       <c r="J7" s="27">
         <f ca="1"/>
-        <v>7.0206745473166285E-2</v>
+        <v>6.3633095543034798E-2</v>
       </c>
       <c r="K7" s="9" t="str">
         <f ca="1"/>
@@ -5321,7 +5329,7 @@
       </c>
       <c r="L7" s="15">
         <f ca="1"/>
-        <v>0.22306544717666302</v>
+        <v>0.22432055888089575</v>
       </c>
       <c r="M7" s="9" t="str">
         <f ca="1"/>
@@ -5329,7 +5337,7 @@
       </c>
       <c r="N7" s="24">
         <f ca="1"/>
-        <v>0.19311721592677014</v>
+        <v>0.1792290033164258</v>
       </c>
       <c r="O7" s="15" t="str">
         <f ca="1"/>
@@ -5337,7 +5345,7 @@
       </c>
       <c r="P7" s="25">
         <f ca="1"/>
-        <v>-0.19311721592677014</v>
+        <v>-0.1792290033164258</v>
       </c>
       <c r="Q7" s="15" t="str">
         <f ca="1"/>
@@ -5353,7 +5361,7 @@
       </c>
       <c r="T7" s="21">
         <f ca="1"/>
-        <v>4.9710765424528817E-3</v>
+        <v>3.7724801363553679E-3</v>
       </c>
       <c r="U7" s="9" t="e">
         <f ca="1"/>
@@ -5375,14 +5383,14 @@
     <row r="8" spans="1:24">
       <c r="A8" s="59">
         <f ca="1">BaseDate</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B8, A8,D8, E8)</f>
-        <v>AUD-Caplet-21M-3M-0.05-27/04/2018</v>
+        <v>AUD-Caplet-21M-3M-0.05-2/07/2019</v>
       </c>
       <c r="D8" s="20">
         <v>0.3</v>
@@ -5394,7 +5402,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="14" t="str">
         <f t="array" aca="1" ref="H8:X8" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C8,A8)</f>
-        <v>AUD-Caplet-21M-3M-0.05-27/04/2018</v>
+        <v>AUD-Caplet-21M-3M-0.05-2/07/2019</v>
       </c>
       <c r="I8" s="9" t="str">
         <f ca="1"/>
@@ -5402,7 +5410,7 @@
       </c>
       <c r="J8" s="27">
         <f ca="1"/>
-        <v>7.0200060851437485E-2</v>
+        <v>6.4641088350898865E-2</v>
       </c>
       <c r="K8" s="9" t="str">
         <f ca="1"/>
@@ -5410,7 +5418,7 @@
       </c>
       <c r="L8" s="15">
         <f ca="1"/>
-        <v>0.21450323230726451</v>
+        <v>0.2089104156460605</v>
       </c>
       <c r="M8" s="9" t="str">
         <f ca="1"/>
@@ -5418,7 +5426,7 @@
       </c>
       <c r="N8" s="24">
         <f ca="1"/>
-        <v>0.18311477565738657</v>
+        <v>0.16725247901848012</v>
       </c>
       <c r="O8" s="15" t="str">
         <f ca="1"/>
@@ -5426,7 +5434,7 @@
       </c>
       <c r="P8" s="25">
         <f ca="1"/>
-        <v>-0.18311477565738657</v>
+        <v>-0.16725247901848012</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f ca="1"/>
@@ -5442,7 +5450,7 @@
       </c>
       <c r="T8" s="21">
         <f ca="1"/>
-        <v>4.8785573407128958E-3</v>
+        <v>3.7926981443323366E-3</v>
       </c>
       <c r="U8" s="9" t="e">
         <f ca="1"/>
@@ -5464,14 +5472,14 @@
     <row r="9" spans="1:24">
       <c r="A9" s="59">
         <f ca="1">A8</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B9, A9,D9, E9)</f>
-        <v>AUD-IRCap-2Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-2Y-0.05-2/07/2019</v>
       </c>
       <c r="D9" s="20">
         <v>0.3</v>
@@ -5483,7 +5491,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="14" t="str">
         <f t="array" aca="1" ref="H9:X9" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C9,A9)</f>
-        <v>AUD-IRCap-2Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-2Y-0.05-2/07/2019</v>
       </c>
       <c r="I9" s="9" t="str">
         <f ca="1"/>
@@ -5491,7 +5499,7 @@
       </c>
       <c r="J9" s="27">
         <f ca="1"/>
-        <v>7.02000000251225E-2</v>
+        <v>6.6465495815372699E-2</v>
       </c>
       <c r="K9" s="9" t="str">
         <f ca="1"/>
@@ -5499,7 +5507,7 @@
       </c>
       <c r="L9" s="15">
         <f ca="1"/>
-        <v>1.8522045157470199</v>
+        <v>1.8638334582625</v>
       </c>
       <c r="M9" s="9" t="str">
         <f ca="1"/>
@@ -5507,7 +5515,7 @@
       </c>
       <c r="N9" s="24">
         <f ca="1"/>
-        <v>7.36594668450455</v>
+        <v>7.1065938107276798</v>
       </c>
       <c r="O9" s="15" t="str">
         <f ca="1"/>
@@ -5515,7 +5523,7 @@
       </c>
       <c r="P9" s="25">
         <f ca="1"/>
-        <v>-7.36594668450455</v>
+        <v>-7.1065938107276798</v>
       </c>
       <c r="Q9" s="15" t="str">
         <f ca="1"/>
@@ -5531,7 +5539,7 @@
       </c>
       <c r="T9" s="21">
         <f ca="1"/>
-        <v>0.49468504138636599</v>
+        <v>0.50267138643241904</v>
       </c>
       <c r="U9" s="9" t="str">
         <f ca="1"/>
@@ -5539,7 +5547,7 @@
       </c>
       <c r="V9" s="15">
         <f ca="1"/>
-        <v>0.49120034163784099</v>
+        <v>0.376002443521189</v>
       </c>
       <c r="W9" s="21" t="str">
         <f ca="1"/>
@@ -5547,20 +5555,20 @@
       </c>
       <c r="X9" s="22">
         <f ca="1"/>
-        <v>0.490295326955966</v>
+        <v>0.39007794164903897</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="59">
         <f t="shared" ref="A10:A11" ca="1" si="1">A9</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B10, A10,D10, E10)</f>
-        <v>AUD-IRCap-3Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-3Y-0.05-2/07/2019</v>
       </c>
       <c r="D10" s="20">
         <v>0.3</v>
@@ -5572,7 +5580,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="14" t="str">
         <f t="array" aca="1" ref="H10:X10" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C10,A10)</f>
-        <v>AUD-IRCap-3Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-3Y-0.05-2/07/2019</v>
       </c>
       <c r="I10" s="9" t="str">
         <f ca="1"/>
@@ -5580,7 +5588,7 @@
       </c>
       <c r="J10" s="27">
         <f ca="1"/>
-        <v>7.0200000829618706E-2</v>
+        <v>7.4400060545259605E-2</v>
       </c>
       <c r="K10" s="9" t="str">
         <f ca="1"/>
@@ -5588,7 +5596,7 @@
       </c>
       <c r="L10" s="15">
         <f ca="1"/>
-        <v>2.6847896681486798</v>
+        <v>2.69118987151976</v>
       </c>
       <c r="M10" s="9" t="str">
         <f ca="1"/>
@@ -5596,7 +5604,7 @@
       </c>
       <c r="N10" s="24">
         <f ca="1"/>
-        <v>10.6987812536682</v>
+        <v>10.852591357801799</v>
       </c>
       <c r="O10" s="15" t="str">
         <f ca="1"/>
@@ -5604,7 +5612,7 @@
       </c>
       <c r="P10" s="25">
         <f ca="1"/>
-        <v>-10.6987812536682</v>
+        <v>-10.852591357801799</v>
       </c>
       <c r="Q10" s="15" t="str">
         <f ca="1"/>
@@ -5620,7 +5628,7 @@
       </c>
       <c r="T10" s="21">
         <f ca="1"/>
-        <v>0.49468504138636599</v>
+        <v>0.50267138643241904</v>
       </c>
       <c r="U10" s="9" t="str">
         <f ca="1"/>
@@ -5628,7 +5636,7 @@
       </c>
       <c r="V10" s="15">
         <f ca="1"/>
-        <v>0.49120034163784099</v>
+        <v>0.376002443521189</v>
       </c>
       <c r="W10" s="21" t="str">
         <f ca="1"/>
@@ -5636,20 +5644,20 @@
       </c>
       <c r="X10" s="22">
         <f ca="1"/>
-        <v>0.490295326955966</v>
+        <v>0.39007794164903897</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="59">
         <f t="shared" ca="1" si="1"/>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B11, A11,D11, E11)</f>
-        <v>AUD-IRCap-5Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-5Y-0.05-2/07/2019</v>
       </c>
       <c r="D11" s="20">
         <v>0.3</v>
@@ -5661,7 +5669,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="14" t="str">
         <f t="array" aca="1" ref="H11:X11" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C11,A11)</f>
-        <v>AUD-IRCap-5Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-5Y-0.05-2/07/2019</v>
       </c>
       <c r="I11" s="9" t="str">
         <f ca="1"/>
@@ -5669,7 +5677,7 @@
       </c>
       <c r="J11" s="27">
         <f ca="1"/>
-        <v>6.9595103169035194E-2</v>
+        <v>7.3812703669250496E-2</v>
       </c>
       <c r="K11" s="9" t="str">
         <f ca="1"/>
@@ -5677,7 +5685,7 @@
       </c>
       <c r="L11" s="15">
         <f ca="1"/>
-        <v>4.1853828444977204</v>
+        <v>4.1676647761387304</v>
       </c>
       <c r="M11" s="9" t="str">
         <f ca="1"/>
@@ -5685,7 +5693,7 @@
       </c>
       <c r="N11" s="24">
         <f ca="1"/>
-        <v>17.074619644378998</v>
+        <v>17.450484448090599</v>
       </c>
       <c r="O11" s="15" t="str">
         <f ca="1"/>
@@ -5693,7 +5701,7 @@
       </c>
       <c r="P11" s="25">
         <f ca="1"/>
-        <v>-17.074619644378998</v>
+        <v>-17.450484448090599</v>
       </c>
       <c r="Q11" s="15" t="str">
         <f ca="1"/>
@@ -5709,7 +5717,7 @@
       </c>
       <c r="T11" s="21">
         <f ca="1"/>
-        <v>0.49468504138636599</v>
+        <v>0.50267138643241904</v>
       </c>
       <c r="U11" s="9" t="str">
         <f ca="1"/>
@@ -5717,7 +5725,7 @@
       </c>
       <c r="V11" s="15">
         <f ca="1"/>
-        <v>0.49120034163784099</v>
+        <v>0.376002443521189</v>
       </c>
       <c r="W11" s="21" t="str">
         <f ca="1"/>
@@ -5725,20 +5733,20 @@
       </c>
       <c r="X11" s="22">
         <f ca="1"/>
-        <v>0.490295326955966</v>
+        <v>0.39007794164903897</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="59">
         <f ca="1">BaseDate</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B12, A12,D12, E12)</f>
-        <v>AUD-IRCap-7Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-7Y-0.05-2/07/2019</v>
       </c>
       <c r="D12" s="20">
         <v>0.3</v>
@@ -5750,7 +5758,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14" t="str">
         <f t="array" aca="1" ref="H12:X12" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C12,A12)</f>
-        <v>AUD-IRCap-7Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-7Y-0.05-2/07/2019</v>
       </c>
       <c r="I12" s="9" t="str">
         <f ca="1"/>
@@ -5758,7 +5766,7 @@
       </c>
       <c r="J12" s="27">
         <f ca="1"/>
-        <v>6.9594376991394605E-2</v>
+        <v>7.08685832209799E-2</v>
       </c>
       <c r="K12" s="9" t="str">
         <f ca="1"/>
@@ -5766,7 +5774,7 @@
       </c>
       <c r="L12" s="15">
         <f ca="1"/>
-        <v>5.501962600953</v>
+        <v>5.4597232958075104</v>
       </c>
       <c r="M12" s="9" t="str">
         <f ca="1"/>
@@ -5774,7 +5782,7 @@
       </c>
       <c r="N12" s="24">
         <f ca="1"/>
-        <v>23.424305356689501</v>
+        <v>23.374788569311001</v>
       </c>
       <c r="O12" s="15" t="str">
         <f ca="1"/>
@@ -5782,7 +5790,7 @@
       </c>
       <c r="P12" s="25">
         <f ca="1"/>
-        <v>-23.424305356689501</v>
+        <v>-23.374788569311001</v>
       </c>
       <c r="Q12" s="15" t="str">
         <f ca="1"/>
@@ -5798,7 +5806,7 @@
       </c>
       <c r="T12" s="21">
         <f ca="1"/>
-        <v>0.49468504138636599</v>
+        <v>0.50267138643241904</v>
       </c>
       <c r="U12" s="9" t="str">
         <f ca="1"/>
@@ -5806,7 +5814,7 @@
       </c>
       <c r="V12" s="15">
         <f ca="1"/>
-        <v>0.49120034163784099</v>
+        <v>0.376002443521189</v>
       </c>
       <c r="W12" s="21" t="str">
         <f ca="1"/>
@@ -5814,20 +5822,20 @@
       </c>
       <c r="X12" s="22">
         <f ca="1"/>
-        <v>0.490295326955966</v>
+        <v>0.39007794164903897</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="59">
         <f ca="1">A12</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B13, A13,D13, E13)</f>
-        <v>AUD-IRCap-10Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-10Y-0.05-2/07/2019</v>
       </c>
       <c r="D13" s="20">
         <v>0.3</v>
@@ -5839,7 +5847,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14" t="str">
         <f t="array" aca="1" ref="H13:X13" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C13,A13)</f>
-        <v>AUD-IRCap-10Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-10Y-0.05-2/07/2019</v>
       </c>
       <c r="I13" s="9" t="str">
         <f ca="1"/>
@@ -5847,7 +5855,7 @@
       </c>
       <c r="J13" s="27">
         <f ca="1"/>
-        <v>6.9594565353201104E-2</v>
+        <v>6.8904118071668394E-2</v>
       </c>
       <c r="K13" s="9" t="str">
         <f ca="1"/>
@@ -5855,7 +5863,7 @@
       </c>
       <c r="L13" s="15">
         <f ca="1"/>
-        <v>7.1570185081841204</v>
+        <v>7.1245939799014897</v>
       </c>
       <c r="M13" s="9" t="str">
         <f ca="1"/>
@@ -5863,7 +5871,7 @@
       </c>
       <c r="N13" s="24">
         <f ca="1"/>
-        <v>32.937187912801697</v>
+        <v>32.435576452917303</v>
       </c>
       <c r="O13" s="15" t="str">
         <f ca="1"/>
@@ -5871,7 +5879,7 @@
       </c>
       <c r="P13" s="25">
         <f ca="1"/>
-        <v>-32.937187912801697</v>
+        <v>-32.435576452917303</v>
       </c>
       <c r="Q13" s="15" t="str">
         <f ca="1"/>
@@ -5887,7 +5895,7 @@
       </c>
       <c r="T13" s="21">
         <f ca="1"/>
-        <v>0.49468504138636599</v>
+        <v>0.50267138643241904</v>
       </c>
       <c r="U13" s="9" t="str">
         <f ca="1"/>
@@ -5895,7 +5903,7 @@
       </c>
       <c r="V13" s="15">
         <f ca="1"/>
-        <v>0.49120034163784099</v>
+        <v>0.376002443521189</v>
       </c>
       <c r="W13" s="21" t="str">
         <f ca="1"/>
@@ -5903,20 +5911,20 @@
       </c>
       <c r="X13" s="22">
         <f ca="1"/>
-        <v>0.490295326955966</v>
+        <v>0.39007794164903897</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="59">
         <f t="shared" ref="A14:A15" ca="1" si="2">A13</f>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="31" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B14, A14,D14, E14)</f>
-        <v>AUD-IRCap-15Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-15Y-0.05-2/07/2019</v>
       </c>
       <c r="D14" s="20">
         <v>0.3</v>
@@ -5928,7 +5936,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="str">
         <f t="array" aca="1" ref="H14:X14" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C14,A14)</f>
-        <v>AUD-IRCap-15Y-0.05-27/04/2018</v>
+        <v>AUD-IRCap-15Y-0.05-2/07/2019</v>
       </c>
       <c r="I14" s="9" t="str">
         <f ca="1"/>
@@ -5936,7 +5944,7 @@
       </c>
       <c r="J14" s="27">
         <f ca="1"/>
-        <v>6.9594413832492402E-2</v>
+        <v>6.7429941033528701E-2</v>
       </c>
       <c r="K14" s="9" t="str">
         <f ca="1"/>
@@ -5944,7 +5952,7 @@
       </c>
       <c r="L14" s="15">
         <f ca="1"/>
-        <v>9.2608551289689007</v>
+        <v>9.2932332130773698</v>
       </c>
       <c r="M14" s="9" t="str">
         <f ca="1"/>
@@ -5952,7 +5960,7 @@
       </c>
       <c r="N14" s="24">
         <f ca="1"/>
-        <v>48.938163642352997</v>
+        <v>47.843041547438602</v>
       </c>
       <c r="O14" s="15" t="str">
         <f ca="1"/>
@@ -5960,7 +5968,7 @@
       </c>
       <c r="P14" s="25">
         <f ca="1"/>
-        <v>-48.938163642352997</v>
+        <v>-47.843041547438602</v>
       </c>
       <c r="Q14" s="15" t="str">
         <f ca="1"/>
@@ -5976,7 +5984,7 @@
       </c>
       <c r="T14" s="21">
         <f ca="1"/>
-        <v>0.49468504138636599</v>
+        <v>0.50267138643241904</v>
       </c>
       <c r="U14" s="9" t="str">
         <f ca="1"/>
@@ -5984,7 +5992,7 @@
       </c>
       <c r="V14" s="15">
         <f ca="1"/>
-        <v>0.49120034163784099</v>
+        <v>0.376002443521189</v>
       </c>
       <c r="W14" s="21" t="str">
         <f ca="1"/>
@@ -5992,20 +6000,20 @@
       </c>
       <c r="X14" s="22">
         <f ca="1"/>
-        <v>0.490295326955966</v>
+        <v>0.39007794164903897</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12" thickBot="1">
       <c r="A15" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>43217</v>
+        <v>43648</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="62" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B15, A15,D15, E15)</f>
-        <v>AUD-Floorlet-12M-3M-0.05-27/04/2018</v>
+        <v>AUD-Floorlet-12M-3M-0.05-2/07/2019</v>
       </c>
       <c r="D15" s="63">
         <v>0.3</v>
@@ -6017,7 +6025,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="14" t="str">
         <f t="array" aca="1" ref="H15:X15" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetrics($F$2:$F$7,'GetInfo &amp; GetInstrumentInfo'!$C$6, C15,A15)</f>
-        <v>AUD-Floorlet-12M-3M-0.05-27/04/2018</v>
+        <v>AUD-Floorlet-12M-3M-0.05-2/07/2019</v>
       </c>
       <c r="I15" s="9" t="str">
         <f ca="1"/>
@@ -6025,7 +6033,7 @@
       </c>
       <c r="J15" s="27">
         <f ca="1"/>
-        <v>7.0187597253031184E-2</v>
+        <v>6.8175770516886128E-2</v>
       </c>
       <c r="K15" s="9" t="str">
         <f ca="1"/>
@@ -6033,7 +6041,7 @@
       </c>
       <c r="L15" s="15">
         <f ca="1"/>
-        <v>0.22847486635796543</v>
+        <v>0.23175001471963769</v>
       </c>
       <c r="M15" s="9" t="str">
         <f ca="1"/>
@@ -6041,7 +6049,7 @@
       </c>
       <c r="N15" s="24">
         <f ca="1"/>
-        <v>-2.2997420862980834E-2</v>
+        <v>-2.7470284365315973E-2</v>
       </c>
       <c r="O15" s="15" t="str">
         <f ca="1"/>
@@ -6049,7 +6057,7 @@
       </c>
       <c r="P15" s="25">
         <f ca="1"/>
-        <v>-2.2997420862980834E-2</v>
+        <v>-2.7470284365315973E-2</v>
       </c>
       <c r="Q15" s="15" t="str">
         <f ca="1"/>
@@ -6065,7 +6073,7 @@
       </c>
       <c r="T15" s="21">
         <f ca="1"/>
-        <v>2.6260998178109785E-4</v>
+        <v>3.1613780049694328E-4</v>
       </c>
       <c r="U15" s="9" t="e">
         <f ca="1"/>
@@ -6125,7 +6133,7 @@
       </c>
       <c r="H18" s="77" t="str">
         <f t="array" aca="1" ref="H18:J49" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsRawData(F2:F7,'GetInfo &amp; GetInstrumentInfo'!$C$6,C2:C15,$A$2)</f>
-        <v>AUD-Caplet-1DM-90D-0.05-27/04/2018</v>
+        <v>AUD-Caplet-1DM-90D-0.05-2/07/2019</v>
       </c>
       <c r="I18" s="11" t="str">
         <f ca="1"/>
@@ -6133,7 +6141,7 @@
       </c>
       <c r="J18" s="78">
         <f ca="1"/>
-        <v>7.0102224390069606E-2</v>
+        <v>7.0232913034594682E-2</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -6145,7 +6153,7 @@
       </c>
       <c r="H19" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-Caplet-1DM-90D-0.05-27/04/2018</v>
+        <v>AUD-Caplet-1DM-90D-0.05-2/07/2019</v>
       </c>
       <c r="I19" s="9" t="str">
         <f ca="1"/>
@@ -6153,7 +6161,7 @@
       </c>
       <c r="J19" s="22">
         <f ca="1"/>
-        <v>0.23696003074876901</v>
+        <v>0.24233396128708964</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -6165,7 +6173,7 @@
       </c>
       <c r="H20" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-Caplet-1DM-90D-0.05-27/04/2018</v>
+        <v>AUD-Caplet-1DM-90D-0.05-2/07/2019</v>
       </c>
       <c r="I20" s="9" t="str">
         <f ca="1"/>
@@ -6173,7 +6181,7 @@
       </c>
       <c r="J20" s="22">
         <f ca="1"/>
-        <v>0.23696003074876901</v>
+        <v>0.24233396128708964</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -6185,7 +6193,7 @@
       </c>
       <c r="H21" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-Caplet-1DM-90D-0.05-27/04/2018</v>
+        <v>AUD-Caplet-1DM-90D-0.05-2/07/2019</v>
       </c>
       <c r="I21" s="9" t="str">
         <f ca="1"/>
@@ -6193,7 +6201,7 @@
       </c>
       <c r="J21" s="22">
         <f ca="1"/>
-        <v>-0.23696003074876901</v>
+        <v>-0.24233396128708964</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -6205,7 +6213,7 @@
       </c>
       <c r="H22" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-Caplet-1DM-90D-0.05-27/04/2018</v>
+        <v>AUD-Caplet-1DM-90D-0.05-2/07/2019</v>
       </c>
       <c r="I22" s="9" t="str">
         <f ca="1"/>
@@ -6225,7 +6233,7 @@
       </c>
       <c r="H23" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-Caplet-1DM-90D-0.05-27/04/2018</v>
+        <v>AUD-Caplet-1DM-90D-0.05-2/07/2019</v>
       </c>
       <c r="I23" s="9" t="str">
         <f ca="1"/>
@@ -6233,7 +6241,7 @@
       </c>
       <c r="J23" s="22">
         <f ca="1"/>
-        <v>4.763423709589547E-3</v>
+        <v>4.9031219640505233E-3</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -6245,7 +6253,7 @@
       </c>
       <c r="H24" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-1-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-1-0.05-2/07/2019</v>
       </c>
       <c r="I24" s="9" t="str">
         <f ca="1"/>
@@ -6253,7 +6261,7 @@
       </c>
       <c r="J24" s="22">
         <f ca="1"/>
-        <v>7.1238322534808329E-2</v>
+        <v>6.6596470708722585E-2</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -6265,7 +6273,7 @@
       </c>
       <c r="H25" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-1-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-1-0.05-2/07/2019</v>
       </c>
       <c r="I25" s="9" t="str">
         <f ca="1"/>
@@ -6282,7 +6290,7 @@
       </c>
       <c r="H26" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-1-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-1-0.05-2/07/2019</v>
       </c>
       <c r="I26" s="9" t="str">
         <f ca="1"/>
@@ -6299,7 +6307,7 @@
       </c>
       <c r="H27" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-1-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-1-0.05-2/07/2019</v>
       </c>
       <c r="I27" s="9" t="str">
         <f ca="1"/>
@@ -6315,14 +6323,14 @@
         <v>FxSpot</v>
       </c>
       <c r="C28" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="H28" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-1-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-1-0.05-2/07/2019</v>
       </c>
       <c r="I28" s="9" t="str">
         <f ca="1"/>
@@ -6338,11 +6346,11 @@
         <v>FxForward</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-1-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-1-0.05-2/07/2019</v>
       </c>
       <c r="I29" s="9" t="str">
         <f ca="1"/>
@@ -6350,7 +6358,7 @@
       </c>
       <c r="J29" s="22">
         <f ca="1"/>
-        <v>-8631.1946561010573</v>
+        <v>-8077.8765902377309</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -6359,7 +6367,7 @@
       </c>
       <c r="H30" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRPutFutureOption-IR-2-0.05-27/04/2018</v>
+        <v>AUD-IRPutFutureOption-IR-2-0.05-2/07/2019</v>
       </c>
       <c r="I30" s="9" t="str">
         <f ca="1"/>
@@ -6367,7 +6375,7 @@
       </c>
       <c r="J30" s="22">
         <f ca="1"/>
-        <v>7.0159226414744924E-2</v>
+        <v>6.5583027181124715E-2</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -6376,7 +6384,7 @@
       </c>
       <c r="H31" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRPutFutureOption-IR-2-0.05-27/04/2018</v>
+        <v>AUD-IRPutFutureOption-IR-2-0.05-2/07/2019</v>
       </c>
       <c r="I31" s="9" t="str">
         <f ca="1"/>
@@ -6393,7 +6401,7 @@
       </c>
       <c r="H32" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRPutFutureOption-IR-2-0.05-27/04/2018</v>
+        <v>AUD-IRPutFutureOption-IR-2-0.05-2/07/2019</v>
       </c>
       <c r="I32" s="9" t="str">
         <f ca="1"/>
@@ -6410,7 +6418,7 @@
       </c>
       <c r="H33" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRPutFutureOption-IR-2-0.05-27/04/2018</v>
+        <v>AUD-IRPutFutureOption-IR-2-0.05-2/07/2019</v>
       </c>
       <c r="I33" s="9" t="str">
         <f ca="1"/>
@@ -6427,7 +6435,7 @@
       </c>
       <c r="H34" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRPutFutureOption-IR-2-0.05-27/04/2018</v>
+        <v>AUD-IRPutFutureOption-IR-2-0.05-2/07/2019</v>
       </c>
       <c r="I34" s="9" t="str">
         <f ca="1"/>
@@ -6444,7 +6452,7 @@
       </c>
       <c r="H35" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRPutFutureOption-IR-2-0.05-27/04/2018</v>
+        <v>AUD-IRPutFutureOption-IR-2-0.05-2/07/2019</v>
       </c>
       <c r="I35" s="9" t="str">
         <f ca="1"/>
@@ -6452,7 +6460,7 @@
       </c>
       <c r="J35" s="22">
         <f ca="1"/>
-        <v>-8502.6753086939225</v>
+        <v>-7956.9063093206614</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -6461,7 +6469,7 @@
       </c>
       <c r="H36" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRCallFutureOption-IR-3-0.05-27/04/2018</v>
+        <v>AUD-IRCallFutureOption-IR-3-0.05-2/07/2019</v>
       </c>
       <c r="I36" s="9" t="str">
         <f ca="1"/>
@@ -6469,7 +6477,7 @@
       </c>
       <c r="J36" s="22">
         <f ca="1"/>
-        <v>7.02147430182406E-2</v>
+        <v>6.7557056937260732E-2</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -6478,7 +6486,7 @@
       </c>
       <c r="H37" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRCallFutureOption-IR-3-0.05-27/04/2018</v>
+        <v>AUD-IRCallFutureOption-IR-3-0.05-2/07/2019</v>
       </c>
       <c r="I37" s="9" t="str">
         <f ca="1"/>
@@ -6495,7 +6503,7 @@
       </c>
       <c r="H38" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRCallFutureOption-IR-3-0.05-27/04/2018</v>
+        <v>AUD-IRCallFutureOption-IR-3-0.05-2/07/2019</v>
       </c>
       <c r="I38" s="9" t="str">
         <f ca="1"/>
@@ -6512,7 +6520,7 @@
       </c>
       <c r="H39" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRCallFutureOption-IR-3-0.05-27/04/2018</v>
+        <v>AUD-IRCallFutureOption-IR-3-0.05-2/07/2019</v>
       </c>
       <c r="I39" s="9" t="str">
         <f ca="1"/>
@@ -6529,7 +6537,7 @@
       </c>
       <c r="H40" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRCallFutureOption-IR-3-0.05-27/04/2018</v>
+        <v>AUD-IRCallFutureOption-IR-3-0.05-2/07/2019</v>
       </c>
       <c r="I40" s="9" t="str">
         <f ca="1"/>
@@ -6546,7 +6554,7 @@
       </c>
       <c r="H41" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRCallFutureOption-IR-3-0.05-27/04/2018</v>
+        <v>AUD-IRCallFutureOption-IR-3-0.05-2/07/2019</v>
       </c>
       <c r="I41" s="9" t="str">
         <f ca="1"/>
@@ -6554,7 +6562,7 @@
       </c>
       <c r="J41" s="22">
         <f ca="1"/>
-        <v>-8509.2889250902354</v>
+        <v>-8192.4826322432054</v>
       </c>
     </row>
     <row r="42" spans="2:10">
@@ -6563,7 +6571,7 @@
       </c>
       <c r="H42" s="28" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-4-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-4-0.05-2/07/2019</v>
       </c>
       <c r="I42" s="9" t="str">
         <f ca="1"/>
@@ -6571,7 +6579,7 @@
       </c>
       <c r="J42" s="22">
         <f ca="1"/>
-        <v>7.0225635690849844E-2</v>
+        <v>6.8819075816676803E-2</v>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -6580,7 +6588,7 @@
       </c>
       <c r="H43" s="14" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-4-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-4-0.05-2/07/2019</v>
       </c>
       <c r="I43" s="9" t="str">
         <f ca="1"/>
@@ -6597,7 +6605,7 @@
       </c>
       <c r="H44" s="14" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-4-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-4-0.05-2/07/2019</v>
       </c>
       <c r="I44" s="9" t="str">
         <f ca="1"/>
@@ -6614,7 +6622,7 @@
       </c>
       <c r="H45" s="14" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-4-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-4-0.05-2/07/2019</v>
       </c>
       <c r="I45" s="9" t="str">
         <f ca="1"/>
@@ -6631,7 +6639,7 @@
       </c>
       <c r="H46" s="14" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-4-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-4-0.05-2/07/2019</v>
       </c>
       <c r="I46" s="9" t="str">
         <f ca="1"/>
@@ -6648,7 +6656,7 @@
       </c>
       <c r="H47" s="14" t="str">
         <f ca="1"/>
-        <v>AUD-IRFutureOption-IR-4-0.05-27/04/2018</v>
+        <v>AUD-IRFutureOption-IR-4-0.05-2/07/2019</v>
       </c>
       <c r="I47" s="9" t="str">
         <f ca="1"/>
@@ -6656,7 +6664,7 @@
       </c>
       <c r="J47" s="22">
         <f ca="1"/>
-        <v>-8510.5865332662561</v>
+        <v>-8342.970991674887</v>
       </c>
     </row>
     <row r="48" spans="2:10">
@@ -6665,7 +6673,7 @@
       </c>
       <c r="H48" s="14" t="str">
         <f ca="1"/>
-        <v>AUD-Caplet-18M-3M-0.05-27/04/2018</v>
+        <v>AUD-Caplet-18M-3M-0.05-2/07/2019</v>
       </c>
       <c r="I48" s="9" t="str">
         <f ca="1"/>
@@ -6673,7 +6681,7 @@
       </c>
       <c r="J48" s="22">
         <f ca="1"/>
-        <v>7.0206745473166285E-2</v>
+        <v>6.3633095543034798E-2</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="12" thickBot="1">
@@ -6682,7 +6690,7 @@
       </c>
       <c r="H49" s="17" t="str">
         <f ca="1"/>
-        <v>AUD-Caplet-18M-3M-0.05-27/04/2018</v>
+        <v>AUD-Caplet-18M-3M-0.05-2/07/2019</v>
       </c>
       <c r="I49" s="18" t="str">
         <f ca="1"/>
@@ -6690,7 +6698,7 @@
       </c>
       <c r="J49" s="79">
         <f ca="1"/>
-        <v>0.22306544717666302</v>
+        <v>0.22432055888089575</v>
       </c>
     </row>
     <row r="50" spans="2:10">
